--- a/ghant.xlsx
+++ b/ghant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mat05\OneDrive - Danmarks Tekniske Universitet\Semester={3,4}\Fagprojekt\02466---Project-in-Artificial-Intelligence-and-Data-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{04291438-3918-4AFF-A956-74EA298F1C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA2EAA17-998E-43D5-86B0-F32D8663E94D}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{04291438-3918-4AFF-A956-74EA298F1C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78159209-5212-4BC0-9745-A1568137DAB6}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="1530" windowWidth="17100" windowHeight="8280" xr2:uid="{55964C51-6F1C-412D-BE77-F8C2060A08AB}"/>
   </bookViews>
@@ -92,7 +92,7 @@
     <t>Implement adjustments in algorithm *</t>
   </si>
   <si>
-    <t>*Article name*</t>
+    <t>*Article name: Equality of Opportunity in Supervised Learning, by Hardt Moritz, Eric Price, Nathan Srebro</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -472,6 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,8 +510,8 @@
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>67917</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>8819</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149931</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -527,7 +527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9391220" y="185484"/>
-          <a:ext cx="3861766" cy="4074307"/>
+          <a:ext cx="3861766" cy="3104169"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -562,94 +562,72 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="da-DK" sz="1100"/>
+            <a:rPr lang="da-DK" sz="1100" b="1"/>
             <a:t>Milestones</a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="da-DK" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>6th of march: Found and read a deceant amount of articles ets. </a:t>
+            <a:rPr lang="da-DK"/>
+            <a:t>06.03: Found and read a decent amount of relevant literature.</a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+        <a:p>
           <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>11th of march: Understand the features quete well. </a:t>
+            <a:rPr lang="da-DK"/>
+            <a:t>11.03: Understand the data (feature, structure etc.). </a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+        <a:p>
           <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>18th march: Hand-in method, introduction, data description  </a:t>
+            <a:rPr lang="da-DK"/>
+            <a:t>18.03: Hand-in method, introduction, data description.</a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+        <a:p>
           <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>29th of march: Desciption of data done</a:t>
+            <a:rPr lang="da-DK"/>
+            <a:t>06.04: Started finding possible bias in own data using statistics.</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>13th of april: Well on our way implementing adjustments in model, to remove bias</a:t>
+            <a:rPr lang="da-DK"/>
+            <a:t>13.04: Started implementing adjustments in model to remove bias.</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>6th of april: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Well on our way to finding  possible bias in own data using statistics</a:t>
-          </a:r>
-          <a:endParaRPr lang="da-DK">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>18th of june: Discussion, method and analysis done </a:t>
+            <a:rPr lang="da-DK"/>
+            <a:t>06.06: Implementation work mostly done.</a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="da-DK"/>
+            <a:t>18.06: Discussion, method and analysis done.</a:t>
+          </a:r>
           <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
@@ -958,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E3BD28-9254-42D9-9DCB-AFB945E07DBF}">
   <dimension ref="A2:BE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="72" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="AN26" sqref="AN26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1308,7 +1286,7 @@
       <c r="BE6" s="47"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="44">
@@ -1395,13 +1373,13 @@
       <c r="AC7" s="45">
         <v>28</v>
       </c>
-      <c r="AD7" s="48">
+      <c r="AD7" s="68">
         <v>29</v>
       </c>
       <c r="AE7" s="45">
         <v>30</v>
       </c>
-      <c r="AF7" s="49">
+      <c r="AF7" s="48">
         <v>31</v>
       </c>
       <c r="AH7" s="10"/>
@@ -1430,40 +1408,40 @@
       <c r="BE7" s="47"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="65"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="64"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
@@ -1494,7 +1472,7 @@
       <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -1733,10 +1711,10 @@
       <c r="BE12" s="10"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1751,22 +1729,22 @@
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
       <c r="AE13" s="12"/>
-      <c r="AF13" s="68"/>
+      <c r="AF13" s="67"/>
       <c r="AH13" s="10"/>
       <c r="AI13" s="10"/>
       <c r="AJ13" s="10"/>
@@ -1793,100 +1771,100 @@
       <c r="BE13" s="10"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="56">
         <v>1</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="57">
         <v>2</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="57">
         <v>3</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="57">
         <v>4</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="57">
         <v>5</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="58">
         <v>6</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="57">
         <v>7</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="57">
         <v>8</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="57">
         <v>9</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="57">
         <v>10</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="57">
         <v>11</v>
       </c>
-      <c r="M14" s="58">
+      <c r="M14" s="57">
         <v>12</v>
       </c>
-      <c r="N14" s="58">
+      <c r="N14" s="57">
         <v>13</v>
       </c>
-      <c r="O14" s="58">
+      <c r="O14" s="57">
         <v>14</v>
       </c>
-      <c r="P14" s="58">
+      <c r="P14" s="57">
         <v>15</v>
       </c>
-      <c r="Q14" s="58">
+      <c r="Q14" s="57">
         <v>16</v>
       </c>
-      <c r="R14" s="58">
+      <c r="R14" s="57">
         <v>17</v>
       </c>
-      <c r="S14" s="58">
+      <c r="S14" s="57">
         <v>18</v>
       </c>
-      <c r="T14" s="58">
+      <c r="T14" s="57">
         <v>19</v>
       </c>
-      <c r="U14" s="58">
+      <c r="U14" s="57">
         <v>20</v>
       </c>
-      <c r="V14" s="58">
+      <c r="V14" s="57">
         <v>21</v>
       </c>
-      <c r="W14" s="58">
+      <c r="W14" s="57">
         <v>22</v>
       </c>
-      <c r="X14" s="58">
+      <c r="X14" s="57">
         <v>23</v>
       </c>
-      <c r="Y14" s="58">
+      <c r="Y14" s="57">
         <v>24</v>
       </c>
-      <c r="Z14" s="58">
+      <c r="Z14" s="57">
         <v>25</v>
       </c>
-      <c r="AA14" s="58">
+      <c r="AA14" s="57">
         <v>26</v>
       </c>
-      <c r="AB14" s="58">
+      <c r="AB14" s="57">
         <v>27</v>
       </c>
-      <c r="AC14" s="58">
+      <c r="AC14" s="57">
         <v>28</v>
       </c>
-      <c r="AD14" s="58">
+      <c r="AD14" s="57">
         <v>29</v>
       </c>
-      <c r="AE14" s="59">
+      <c r="AE14" s="57">
         <v>30</v>
       </c>
-      <c r="AF14" s="60"/>
+      <c r="AF14" s="59"/>
       <c r="AH14" s="10"/>
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
@@ -2093,40 +2071,40 @@
       <c r="BE17" s="10"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="55"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="54"/>
       <c r="AJ18" s="10"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="10"/>
@@ -2249,40 +2227,40 @@
       <c r="AI19" s="10"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="55"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="54"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
@@ -2339,7 +2317,7 @@
       <c r="F22" s="23">
         <v>5</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="18">
         <v>6</v>
       </c>
       <c r="H22" s="23">
@@ -2417,27 +2395,27 @@
       <c r="AF22" s="24"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
       <c r="T23" s="30"/>
       <c r="U23" s="30"/>
       <c r="V23" s="30"/>
@@ -2450,7 +2428,7 @@
       <c r="AC23" s="30"/>
       <c r="AD23" s="30"/>
       <c r="AE23" s="30"/>
-      <c r="AF23" s="53"/>
+      <c r="AF23" s="52"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
@@ -2545,13 +2523,13 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -2607,21 +2585,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EE4B0B4C22A0B046867BD73DBE65599C" ma:contentTypeVersion="10" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="8c18936a6b32aa7b75385deecaa3ba2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9607fe25-1244-4e13-b3b5-422d34e443d7" xmlns:ns4="923e3bed-4026-461e-8afc-03d2ee3beca5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd95d6bd26dd9f1744c117c8f4c9e78d" ns3:_="" ns4:_="">
     <xsd:import namespace="9607fe25-1244-4e13-b3b5-422d34e443d7"/>
@@ -2824,24 +2787,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C91B1EE6-E9FD-44AB-BE2C-9ABF821EB1C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49FF29AD-C2FA-4D63-AF9C-22C93E222E24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E35FC2CF-06F1-4ACE-AD90-BDF13AAB4C91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2858,4 +2819,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49FF29AD-C2FA-4D63-AF9C-22C93E222E24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C91B1EE6-E9FD-44AB-BE2C-9ABF821EB1C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>